--- a/Excel/Práctica/17. Formatos condicionales en Excel (principios de Visualización)/Escalas de color, para hacer la información mucho más visual al comparar cantidades de menor a mayor.xlsx
+++ b/Excel/Práctica/17. Formatos condicionales en Excel (principios de Visualización)/Escalas de color, para hacer la información mucho más visual al comparar cantidades de menor a mayor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/17. Formatos condicionales en Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/17. Formatos condicionales en Excel (principios de Visualización)/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2017,7 +2017,7 @@
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2222,10 +2222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Énfasis1" xfId="5" builtinId="29"/>
@@ -2236,37 +2236,7 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2294,276 +2264,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2972,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3009,7 +2709,7 @@
       <c r="A2" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>100</v>
       </c>
       <c r="C2">
@@ -3031,7 +2731,7 @@
       <c r="A3" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>200</v>
       </c>
       <c r="C3">
@@ -3048,22 +2748,22 @@
         <f t="shared" ref="F3:F63" si="1">C3*E3</f>
         <v>15000</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>300</v>
       </c>
       <c r="C4">
@@ -3080,20 +2780,20 @@
         <f t="shared" si="1"/>
         <v>930000</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>470</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1000</v>
       </c>
       <c r="C5">
@@ -3110,20 +2810,20 @@
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>471</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>900</v>
       </c>
       <c r="C6">
@@ -3140,20 +2840,20 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>472</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>200</v>
       </c>
       <c r="C7">
@@ -3170,20 +2870,20 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>300</v>
       </c>
       <c r="C8">
@@ -3200,20 +2900,20 @@
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>474</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>100</v>
       </c>
       <c r="C9">
@@ -3242,7 +2942,7 @@
       <c r="A10" t="s">
         <v>475</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>80</v>
       </c>
       <c r="C10">
@@ -3259,22 +2959,22 @@
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>70</v>
       </c>
       <c r="C11">
@@ -3291,20 +2991,20 @@
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>477</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>1000</v>
       </c>
       <c r="C12">
@@ -3321,20 +3021,20 @@
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>478</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>100</v>
       </c>
       <c r="C13">
@@ -3351,20 +3051,20 @@
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>479</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>300</v>
       </c>
       <c r="C14">
@@ -3381,20 +3081,20 @@
         <f t="shared" si="1"/>
         <v>224000</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>400</v>
       </c>
       <c r="C15">
@@ -3411,20 +3111,20 @@
         <f t="shared" si="1"/>
         <v>330000</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>481</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>900</v>
       </c>
       <c r="C16">
@@ -3441,20 +3141,20 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>482</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>100</v>
       </c>
       <c r="C17">
@@ -3476,7 +3176,7 @@
       <c r="A18" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>100</v>
       </c>
       <c r="C18">
@@ -3493,22 +3193,22 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>484</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>200</v>
       </c>
       <c r="C19">
@@ -3525,20 +3225,20 @@
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>485</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>300</v>
       </c>
       <c r="C20">
@@ -3555,20 +3255,20 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>486</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>1000</v>
       </c>
       <c r="C21">
@@ -3590,7 +3290,7 @@
       <c r="A22" t="s">
         <v>487</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>900</v>
       </c>
       <c r="C22">
@@ -3607,22 +3307,22 @@
         <f t="shared" si="1"/>
         <v>720000</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>488</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>200</v>
       </c>
       <c r="C23">
@@ -3639,20 +3339,20 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>489</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>300</v>
       </c>
       <c r="C24">
@@ -3669,20 +3369,20 @@
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>490</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>100</v>
       </c>
       <c r="C25">
@@ -3699,20 +3399,20 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>491</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>80</v>
       </c>
       <c r="C26">
@@ -3729,20 +3429,20 @@
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>492</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>70</v>
       </c>
       <c r="C27">
@@ -3759,20 +3459,20 @@
         <f t="shared" si="1"/>
         <v>39000</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>493</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>1000</v>
       </c>
       <c r="C28">
@@ -3789,20 +3489,20 @@
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>494</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>100</v>
       </c>
       <c r="C29">
@@ -3824,7 +3524,7 @@
       <c r="A30" t="s">
         <v>495</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>300</v>
       </c>
       <c r="C30">
@@ -3841,22 +3541,22 @@
         <f t="shared" si="1"/>
         <v>330000</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>496</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>400</v>
       </c>
       <c r="C31">
@@ -3873,20 +3573,20 @@
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>497</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>900</v>
       </c>
       <c r="C32">
@@ -3908,7 +3608,7 @@
       <c r="A33" t="s">
         <v>498</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>100</v>
       </c>
       <c r="C33">
@@ -3925,22 +3625,22 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>499</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>100</v>
       </c>
       <c r="C34">
@@ -3957,20 +3657,20 @@
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>200</v>
       </c>
       <c r="C35">
@@ -3987,20 +3687,20 @@
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>501</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>300</v>
       </c>
       <c r="C36">
@@ -4017,20 +3717,20 @@
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>502</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>1000</v>
       </c>
       <c r="C37">
@@ -4047,20 +3747,20 @@
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>503</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>900</v>
       </c>
       <c r="C38">
@@ -4082,7 +3782,7 @@
       <c r="A39" t="s">
         <v>504</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>200</v>
       </c>
       <c r="C39">
@@ -4104,7 +3804,7 @@
       <c r="A40" t="s">
         <v>505</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>300</v>
       </c>
       <c r="C40">
@@ -4126,7 +3826,7 @@
       <c r="A41" t="s">
         <v>506</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>100</v>
       </c>
       <c r="C41">
@@ -4148,7 +3848,7 @@
       <c r="A42" t="s">
         <v>507</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>80</v>
       </c>
       <c r="C42">
@@ -4170,7 +3870,7 @@
       <c r="A43" t="s">
         <v>508</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>70</v>
       </c>
       <c r="C43">
@@ -4192,7 +3892,7 @@
       <c r="A44" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>1000</v>
       </c>
       <c r="C44">
@@ -4214,7 +3914,7 @@
       <c r="A45" t="s">
         <v>510</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>100</v>
       </c>
       <c r="C45">
@@ -4236,7 +3936,7 @@
       <c r="A46" t="s">
         <v>511</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>300</v>
       </c>
       <c r="C46">
@@ -4258,7 +3958,7 @@
       <c r="A47" t="s">
         <v>512</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>400</v>
       </c>
       <c r="C47">
@@ -4280,7 +3980,7 @@
       <c r="A48" t="s">
         <v>513</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>900</v>
       </c>
       <c r="C48">
@@ -4302,7 +4002,7 @@
       <c r="A49" t="s">
         <v>514</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>100</v>
       </c>
       <c r="C49">
@@ -4324,7 +4024,7 @@
       <c r="A50" t="s">
         <v>515</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>100</v>
       </c>
       <c r="C50">
@@ -4341,22 +4041,22 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>516</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>200</v>
       </c>
       <c r="C51">
@@ -4373,20 +4073,20 @@
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>517</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>300</v>
       </c>
       <c r="C52">
@@ -4408,7 +4108,7 @@
       <c r="A53" t="s">
         <v>518</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>1000</v>
       </c>
       <c r="C53">
@@ -4425,22 +4125,22 @@
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>519</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>900</v>
       </c>
       <c r="C54">
@@ -4462,7 +4162,7 @@
       <c r="A55" t="s">
         <v>520</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>200</v>
       </c>
       <c r="C55">
@@ -4484,7 +4184,7 @@
       <c r="A56" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>300</v>
       </c>
       <c r="C56">
@@ -4506,7 +4206,7 @@
       <c r="A57" t="s">
         <v>522</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>100</v>
       </c>
       <c r="C57">
@@ -4528,7 +4228,7 @@
       <c r="A58" t="s">
         <v>523</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>80</v>
       </c>
       <c r="C58">
@@ -4550,7 +4250,7 @@
       <c r="A59" t="s">
         <v>524</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>70</v>
       </c>
       <c r="C59">
@@ -4572,7 +4272,7 @@
       <c r="A60" t="s">
         <v>525</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>1000</v>
       </c>
       <c r="C60">
@@ -4594,7 +4294,7 @@
       <c r="A61" t="s">
         <v>526</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>100</v>
       </c>
       <c r="C61">
@@ -4616,7 +4316,7 @@
       <c r="A62" t="s">
         <v>527</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>300</v>
       </c>
       <c r="C62">
@@ -4638,7 +4338,7 @@
       <c r="A63" t="s">
         <v>528</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>400</v>
       </c>
       <c r="C63">
@@ -4666,18 +4366,18 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H33:O37"/>
-    <mergeCell ref="H50:O51"/>
     <mergeCell ref="H53:O53"/>
     <mergeCell ref="H22:O28"/>
     <mergeCell ref="H30:O31"/>
     <mergeCell ref="H3:O8"/>
     <mergeCell ref="H10:O16"/>
     <mergeCell ref="H18:O20"/>
+    <mergeCell ref="H33:O37"/>
+    <mergeCell ref="H50:O51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4688,17 +4388,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="iconSet" priority="7">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4712,16 +4403,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E63">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="top10" dxfId="4" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="5" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B63">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C63">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="401"/>
+        <cfvo type="num" val="700"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
